--- a/dataset/2020 서울시 교통량 조사자료.xlsx
+++ b/dataset/2020 서울시 교통량 조사자료.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunj\Traffic\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEE5C65-FC9F-4408-A80B-7A7E217D3C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A79FFCA-8631-4799-AFB1-39E787DF03DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" tabRatio="931" activeTab="2" xr2:uid="{E0A9A9A9-DADD-4A66-B531-9E6E1D580EF2}"/>
+    <workbookView xWindow="3218" yWindow="3218" windowWidth="16200" windowHeight="9307" tabRatio="931" firstSheet="2" activeTab="8" xr2:uid="{E0A9A9A9-DADD-4A66-B531-9E6E1D580EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="월별 교통량" sheetId="5" r:id="rId1"/>
     <sheet name="요일별 교통량" sheetId="6" r:id="rId2"/>
-    <sheet name="시간대별 주중교통량" sheetId="3" r:id="rId3"/>
-    <sheet name="시간대별 주말교통량" sheetId="4" r:id="rId4"/>
+    <sheet name="주중교통량 시간대별 " sheetId="3" r:id="rId3"/>
+    <sheet name="주말교통량 시간대별 " sheetId="4" r:id="rId4"/>
     <sheet name="도심 교통량" sheetId="8" r:id="rId5"/>
     <sheet name="시계 교통량" sheetId="9" r:id="rId6"/>
     <sheet name="교량 교통량" sheetId="10" r:id="rId7"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="378">
   <si>
     <t>8월</t>
   </si>
@@ -398,9 +398,6 @@
     <t>세종대로(시청역2)</t>
   </si>
   <si>
-    <t>5 3</t>
-  </si>
-  <si>
     <t>A-18</t>
   </si>
   <si>
@@ -803,9 +800,6 @@
     <t>반포대로(서초역)</t>
   </si>
   <si>
-    <t>4 5</t>
-  </si>
-  <si>
     <t>D-38</t>
   </si>
   <si>
@@ -824,9 +818,6 @@
     <t>헌릉로(세곡동사거리)</t>
   </si>
   <si>
-    <t>5 6</t>
-  </si>
-  <si>
     <t>D-41</t>
   </si>
   <si>
@@ -1098,13 +1089,91 @@
   </si>
   <si>
     <t>강변북로(구리시계)</t>
+  </si>
+  <si>
+    <t>유입(차로수)</t>
+  </si>
+  <si>
+    <t>유출(차로수)</t>
+  </si>
+  <si>
+    <t>번호</t>
+  </si>
+  <si>
+    <t>차로수_유입</t>
+  </si>
+  <si>
+    <t>차로수_유출</t>
+  </si>
+  <si>
+    <t>증감현황(유입)</t>
+  </si>
+  <si>
+    <t>증감현황(유출)</t>
+  </si>
+  <si>
+    <t>증감현황(양방)</t>
+  </si>
+  <si>
+    <t>F-01</t>
+  </si>
+  <si>
+    <t>올림픽대로</t>
+  </si>
+  <si>
+    <t>F-02</t>
+  </si>
+  <si>
+    <t>강변북로</t>
+  </si>
+  <si>
+    <t>F-03</t>
+  </si>
+  <si>
+    <t>내부순환로</t>
+  </si>
+  <si>
+    <t>F-04</t>
+  </si>
+  <si>
+    <t>북부간선도로</t>
+  </si>
+  <si>
+    <t>F-05</t>
+  </si>
+  <si>
+    <t>동부간선도로</t>
+  </si>
+  <si>
+    <t>F-06</t>
+  </si>
+  <si>
+    <t>경부고속도로</t>
+  </si>
+  <si>
+    <t>F-07</t>
+  </si>
+  <si>
+    <t>분당수서로</t>
+  </si>
+  <si>
+    <t>F-08</t>
+  </si>
+  <si>
+    <t>강남순환로(관악터널)</t>
+  </si>
+  <si>
+    <t>F-09</t>
+  </si>
+  <si>
+    <t>서부간선도로</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1136,6 +1205,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1160,7 +1237,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,6 +1258,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1502,12 +1592,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -1548,7 +1638,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
@@ -1589,7 +1679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1630,7 +1720,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1671,7 +1761,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1712,7 +1802,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1753,7 +1843,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1794,7 +1884,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1835,7 +1925,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1876,7 +1966,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -1917,7 +2007,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
@@ -1958,7 +2048,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -1999,7 +2089,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -2040,7 +2130,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -2095,12 +2185,12 @@
       <selection sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -2141,7 +2231,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
@@ -2182,7 +2272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -2223,7 +2313,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -2264,7 +2354,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
@@ -2305,7 +2395,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
@@ -2346,7 +2436,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
@@ -2387,7 +2477,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -2428,7 +2518,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
@@ -2469,7 +2559,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -2510,7 +2600,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -2561,13 +2651,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B062F502-D4EA-44D6-B11C-A70F49673564}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -2608,7 +2698,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
@@ -2649,7 +2739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -2690,7 +2780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -2731,7 +2821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -2772,7 +2862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -2813,7 +2903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2854,7 +2944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -2895,7 +2985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2936,7 +3026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -2977,7 +3067,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -3018,7 +3108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -3059,7 +3149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -3100,7 +3190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -3141,7 +3231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -3182,7 +3272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -3223,7 +3313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -3264,7 +3354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -3305,7 +3395,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -3346,7 +3436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
@@ -3387,7 +3477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
@@ -3428,7 +3518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
@@ -3469,7 +3559,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -3510,7 +3600,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
         <v>16</v>
       </c>
@@ -3551,7 +3641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -3592,7 +3682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
@@ -3633,7 +3723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
         <v>51</v>
       </c>
@@ -3674,7 +3764,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A28" s="4" t="s">
         <v>52</v>
       </c>
@@ -3715,7 +3805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -3756,7 +3846,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A30" s="4" t="s">
         <v>55</v>
       </c>
@@ -3797,7 +3887,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A31" s="4" t="s">
         <v>50</v>
       </c>
@@ -3848,17 +3938,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250DC797-B117-479F-9263-01C4DC00BBDD}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M31" sqref="A1:M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -3899,7 +3989,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
         <v>69</v>
       </c>
@@ -3940,7 +4030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -3981,7 +4071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -4022,7 +4112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -4063,7 +4153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -4104,7 +4194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -4145,7 +4235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -4186,7 +4276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -4227,7 +4317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -4268,7 +4358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -4309,7 +4399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -4350,7 +4440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -4391,7 +4481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -4432,7 +4522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -4473,7 +4563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -4514,7 +4604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -4555,7 +4645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -4596,7 +4686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -4637,7 +4727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
@@ -4678,7 +4768,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
@@ -4719,7 +4809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
@@ -4760,7 +4850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -4801,7 +4891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
         <v>16</v>
       </c>
@@ -4842,7 +4932,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -4883,7 +4973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
@@ -4924,7 +5014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
         <v>51</v>
       </c>
@@ -4965,7 +5055,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A28" s="4" t="s">
         <v>52</v>
       </c>
@@ -5006,7 +5096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A29" s="4" t="s">
         <v>45</v>
       </c>
@@ -5047,7 +5137,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A30" s="4" t="s">
         <v>55</v>
       </c>
@@ -5088,7 +5178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A31" s="4" t="s">
         <v>50</v>
       </c>
@@ -5139,16 +5229,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E966EF-67F9-470B-A6F8-0B1D67C7361C}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L25"/>
+    <sheetView topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -5159,22 +5249,22 @@
         <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>75</v>
@@ -5186,7 +5276,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>78</v>
       </c>
@@ -5224,7 +5314,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
@@ -5262,7 +5352,7 @@
         <v>-8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
         <v>84</v>
       </c>
@@ -5300,7 +5390,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
         <v>86</v>
       </c>
@@ -5338,7 +5428,7 @@
         <v>-7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
         <v>89</v>
       </c>
@@ -5376,7 +5466,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
         <v>91</v>
       </c>
@@ -5414,7 +5504,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
         <v>94</v>
       </c>
@@ -5452,7 +5542,7 @@
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
         <v>97</v>
       </c>
@@ -5490,7 +5580,7 @@
         <v>-4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
         <v>100</v>
       </c>
@@ -5528,7 +5618,7 @@
         <v>-4.7E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
         <v>103</v>
       </c>
@@ -5566,7 +5656,7 @@
         <v>-0.13300000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
         <v>105</v>
       </c>
@@ -5604,7 +5694,7 @@
         <v>-0.14099999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A13" s="3" t="s">
         <v>107</v>
       </c>
@@ -5642,7 +5732,7 @@
         <v>-0.14499999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A14" s="3" t="s">
         <v>109</v>
       </c>
@@ -5680,7 +5770,7 @@
         <v>-9.4E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A15" s="3" t="s">
         <v>112</v>
       </c>
@@ -5718,7 +5808,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A16" s="3" t="s">
         <v>114</v>
       </c>
@@ -5756,7 +5846,7 @@
         <v>-0.114</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
@@ -5794,7 +5884,7 @@
         <v>-7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A18" s="3" t="s">
         <v>119</v>
       </c>
@@ -5802,7 +5892,7 @@
         <v>120</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D18" s="5">
         <v>76671</v>
@@ -5832,12 +5922,12 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>96</v>
@@ -5870,15 +5960,15 @@
         <v>-8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="D20" s="5">
         <v>18494</v>
@@ -5908,12 +5998,12 @@
         <v>-8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>80</v>
@@ -5946,12 +6036,12 @@
         <v>-8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A22" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>88</v>
@@ -5984,12 +6074,12 @@
         <v>-0.215</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>80</v>
@@ -6022,15 +6112,15 @@
         <v>-0.13300000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="D24" s="5">
         <v>14359</v>
@@ -6060,12 +6150,12 @@
         <v>-0.158</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>88</v>
@@ -6109,15 +6199,15 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -6128,22 +6218,22 @@
         <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>75</v>
@@ -6155,12 +6245,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>99</v>
@@ -6193,15 +6283,15 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" s="5">
         <v>82759</v>
@@ -6231,12 +6321,12 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>83</v>
@@ -6269,12 +6359,12 @@
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>83</v>
@@ -6307,12 +6397,12 @@
         <v>-4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>83</v>
@@ -6345,12 +6435,12 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>83</v>
@@ -6383,12 +6473,12 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>83</v>
@@ -6421,12 +6511,12 @@
         <v>-8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>111</v>
@@ -6459,15 +6549,15 @@
         <v>-4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="5">
         <v>87323</v>
@@ -6497,12 +6587,12 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>99</v>
@@ -6535,12 +6625,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>111</v>
@@ -6573,15 +6663,15 @@
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A13" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D13" s="5">
         <v>63140</v>
@@ -6611,12 +6701,12 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A14" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>99</v>
@@ -6649,12 +6739,12 @@
         <v>-5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A15" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>83</v>
@@ -6687,12 +6777,12 @@
         <v>-7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A16" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>99</v>
@@ -6725,15 +6815,15 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A17" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D17" s="5">
         <v>128590</v>
@@ -6763,15 +6853,15 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A18" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="5">
         <v>69618</v>
@@ -6801,15 +6891,15 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A19" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" s="5">
         <v>88751</v>
@@ -6839,12 +6929,12 @@
         <v>-6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A20" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>102</v>
@@ -6877,12 +6967,12 @@
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A21" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>80</v>
@@ -6915,12 +7005,12 @@
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A22" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>80</v>
@@ -6953,12 +7043,12 @@
         <v>-8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A23" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>116</v>
@@ -6991,12 +7081,12 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A24" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>80</v>
@@ -7029,15 +7119,15 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A25" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D25" s="5">
         <v>60114</v>
@@ -7067,15 +7157,15 @@
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A26" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D26" s="5">
         <v>34147</v>
@@ -7105,12 +7195,12 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A27" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>80</v>
@@ -7143,12 +7233,12 @@
         <v>-0.109</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A28" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>83</v>
@@ -7181,12 +7271,12 @@
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A29" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>99</v>
@@ -7219,12 +7309,12 @@
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A30" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>83</v>
@@ -7257,12 +7347,12 @@
         <v>-6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A31" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>83</v>
@@ -7295,12 +7385,12 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A32" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>116</v>
@@ -7333,12 +7423,12 @@
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A33" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>99</v>
@@ -7371,12 +7461,12 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A34" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>83</v>
@@ -7409,12 +7499,12 @@
         <v>-5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A35" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>83</v>
@@ -7447,12 +7537,12 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A36" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>99</v>
@@ -7485,12 +7575,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="50.65" x14ac:dyDescent="0.6">
       <c r="A37" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>111</v>
@@ -7523,12 +7613,12 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A38" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>83</v>
@@ -7571,14 +7661,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE9FEEC-ACCD-4CD9-83C2-0E7A52E6A2DC}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -7589,22 +7681,22 @@
         <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>75</v>
@@ -7616,12 +7708,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>83</v>
@@ -7654,12 +7746,12 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>83</v>
@@ -7692,12 +7784,12 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>83</v>
@@ -7730,12 +7822,12 @@
         <v>-0.106</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>99</v>
@@ -7768,12 +7860,12 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>83</v>
@@ -7806,12 +7898,12 @@
         <v>-6.3E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>111</v>
@@ -7844,12 +7936,12 @@
         <v>-0.155</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>80</v>
@@ -7882,12 +7974,12 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>99</v>
@@ -7920,12 +8012,12 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>83</v>
@@ -7958,12 +8050,12 @@
         <v>-6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>83</v>
@@ -7996,12 +8088,12 @@
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>88</v>
@@ -8034,15 +8126,15 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="D13" s="5">
         <v>206762</v>
@@ -8072,12 +8164,12 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>80</v>
@@ -8110,12 +8202,12 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>99</v>
@@ -8148,12 +8240,12 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>83</v>
@@ -8186,12 +8278,12 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>83</v>
@@ -8224,12 +8316,12 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>99</v>
@@ -8262,12 +8354,12 @@
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>83</v>
@@ -8300,12 +8392,12 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>83</v>
@@ -8338,12 +8430,12 @@
         <v>-0.186</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>88</v>
@@ -8376,7 +8468,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8398,2350 +8490,1902 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F6E3F2-2792-42E2-A2BD-1A035C996151}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="2" width="9" style="9"/>
+    <col min="3" max="4" width="9" style="10"/>
+    <col min="5" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-    </row>
-    <row r="43" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C1" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="J43" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A2" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C2" s="10">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11">
+        <v>45876</v>
+      </c>
+      <c r="F2" s="11">
+        <v>22487</v>
+      </c>
+      <c r="G2" s="11">
+        <v>23389</v>
+      </c>
+      <c r="H2" s="11">
+        <v>43895</v>
+      </c>
+      <c r="I2" s="11">
+        <v>21584</v>
+      </c>
+      <c r="J2" s="11">
+        <v>22311</v>
+      </c>
+      <c r="K2" s="12">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="L2" s="12">
+        <v>-0.04</v>
+      </c>
+      <c r="M2" s="12">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A3" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="5">
-        <v>45876</v>
-      </c>
-      <c r="E44" s="5">
-        <v>22487</v>
-      </c>
-      <c r="F44" s="5">
-        <v>23389</v>
-      </c>
-      <c r="G44" s="5">
-        <v>43895</v>
-      </c>
-      <c r="H44" s="5">
-        <v>21584</v>
-      </c>
-      <c r="I44" s="5">
-        <v>22311</v>
-      </c>
-      <c r="J44" s="6">
-        <v>-4.2999999999999997E-2</v>
-      </c>
-      <c r="K44" s="6">
+      <c r="B3" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>45747</v>
+      </c>
+      <c r="F3" s="11">
+        <v>23434</v>
+      </c>
+      <c r="G3" s="11">
+        <v>22313</v>
+      </c>
+      <c r="H3" s="11">
+        <v>42455</v>
+      </c>
+      <c r="I3" s="11">
+        <v>21672</v>
+      </c>
+      <c r="J3" s="11">
+        <v>20783</v>
+      </c>
+      <c r="K3" s="12">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="L3" s="12">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="M3" s="12">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A4" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11">
+        <v>67523</v>
+      </c>
+      <c r="F4" s="11">
+        <v>33220</v>
+      </c>
+      <c r="G4" s="11">
+        <v>34303</v>
+      </c>
+      <c r="H4" s="11">
+        <v>63672</v>
+      </c>
+      <c r="I4" s="11">
+        <v>31681</v>
+      </c>
+      <c r="J4" s="11">
+        <v>31991</v>
+      </c>
+      <c r="K4" s="12">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="L4" s="12">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="M4" s="12">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A5" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11">
+        <v>90527</v>
+      </c>
+      <c r="F5" s="11">
+        <v>48168</v>
+      </c>
+      <c r="G5" s="11">
+        <v>42359</v>
+      </c>
+      <c r="H5" s="11">
+        <v>86945</v>
+      </c>
+      <c r="I5" s="11">
+        <v>45522</v>
+      </c>
+      <c r="J5" s="11">
+        <v>41423</v>
+      </c>
+      <c r="K5" s="12">
         <v>-0.04</v>
       </c>
-      <c r="L44" s="6">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E45" s="5">
-        <v>23434</v>
-      </c>
-      <c r="F45" s="5">
-        <v>22313</v>
-      </c>
-      <c r="G45" s="5">
-        <v>42455</v>
-      </c>
-      <c r="H45" s="5">
-        <v>21672</v>
-      </c>
-      <c r="I45" s="5">
-        <v>20783</v>
-      </c>
-      <c r="J45" s="6">
+      <c r="L5" s="12">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="M5" s="12">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A6" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="10">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11">
+        <v>87339</v>
+      </c>
+      <c r="F6" s="11">
+        <v>45685</v>
+      </c>
+      <c r="G6" s="11">
+        <v>41654</v>
+      </c>
+      <c r="H6" s="11">
+        <v>83631</v>
+      </c>
+      <c r="I6" s="11">
+        <v>43511</v>
+      </c>
+      <c r="J6" s="11">
+        <v>40120</v>
+      </c>
+      <c r="K6" s="12">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="L6" s="12">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="M6" s="12">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A7" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>68858</v>
+      </c>
+      <c r="F7" s="11">
+        <v>35282</v>
+      </c>
+      <c r="G7" s="11">
+        <v>33576</v>
+      </c>
+      <c r="H7" s="11">
+        <v>66376</v>
+      </c>
+      <c r="I7" s="11">
+        <v>34097</v>
+      </c>
+      <c r="J7" s="11">
+        <v>32279</v>
+      </c>
+      <c r="K7" s="12">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="L7" s="12">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="M7" s="12">
+        <v>-3.9E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A8" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>3</v>
+      </c>
+      <c r="E8" s="11">
+        <v>69677</v>
+      </c>
+      <c r="F8" s="11">
+        <v>33125</v>
+      </c>
+      <c r="G8" s="11">
+        <v>36552</v>
+      </c>
+      <c r="H8" s="11">
+        <v>67793</v>
+      </c>
+      <c r="I8" s="11">
+        <v>31885</v>
+      </c>
+      <c r="J8" s="11">
+        <v>35908</v>
+      </c>
+      <c r="K8" s="12">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="L8" s="12">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="M8" s="12">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A9" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+      <c r="D9" s="10">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11">
+        <v>71331</v>
+      </c>
+      <c r="F9" s="11">
+        <v>38600</v>
+      </c>
+      <c r="G9" s="11">
+        <v>32731</v>
+      </c>
+      <c r="H9" s="11">
+        <v>69489</v>
+      </c>
+      <c r="I9" s="11">
+        <v>37857</v>
+      </c>
+      <c r="J9" s="11">
+        <v>31632</v>
+      </c>
+      <c r="K9" s="12">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="L9" s="12">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="M9" s="12">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A10" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="11">
+        <v>60188</v>
+      </c>
+      <c r="F10" s="11">
+        <v>30863</v>
+      </c>
+      <c r="G10" s="11">
+        <v>29325</v>
+      </c>
+      <c r="H10" s="11">
+        <v>57141</v>
+      </c>
+      <c r="I10" s="11">
+        <v>29520</v>
+      </c>
+      <c r="J10" s="11">
+        <v>27621</v>
+      </c>
+      <c r="K10" s="12">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="L10" s="12">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="M10" s="12">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A11" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11">
+        <v>69384</v>
+      </c>
+      <c r="F11" s="11">
+        <v>34278</v>
+      </c>
+      <c r="G11" s="11">
+        <v>35106</v>
+      </c>
+      <c r="H11" s="11">
+        <v>67887</v>
+      </c>
+      <c r="I11" s="11">
+        <v>33260</v>
+      </c>
+      <c r="J11" s="11">
+        <v>34627</v>
+      </c>
+      <c r="K11" s="12">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="L11" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="M11" s="12">
+        <v>-1.4E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A12" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="10">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11">
+        <v>46769</v>
+      </c>
+      <c r="F12" s="11">
+        <v>23226</v>
+      </c>
+      <c r="G12" s="11">
+        <v>23543</v>
+      </c>
+      <c r="H12" s="11">
+        <v>44897</v>
+      </c>
+      <c r="I12" s="11">
+        <v>22574</v>
+      </c>
+      <c r="J12" s="11">
+        <v>22323</v>
+      </c>
+      <c r="K12" s="12">
+        <v>-0.04</v>
+      </c>
+      <c r="L12" s="12">
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="M12" s="12">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A13" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="10">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11">
+        <v>121732</v>
+      </c>
+      <c r="F13" s="11">
+        <v>60131</v>
+      </c>
+      <c r="G13" s="11">
+        <v>61601</v>
+      </c>
+      <c r="H13" s="11">
+        <v>117986</v>
+      </c>
+      <c r="I13" s="11">
+        <v>58243</v>
+      </c>
+      <c r="J13" s="11">
+        <v>59743</v>
+      </c>
+      <c r="K13" s="12">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="L13" s="12">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="M13" s="12">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A14" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="10">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10">
+        <v>3</v>
+      </c>
+      <c r="E14" s="11">
+        <v>42237</v>
+      </c>
+      <c r="F14" s="11">
+        <v>23305</v>
+      </c>
+      <c r="G14" s="11">
+        <v>18932</v>
+      </c>
+      <c r="H14" s="11">
+        <v>38770</v>
+      </c>
+      <c r="I14" s="11">
+        <v>21730</v>
+      </c>
+      <c r="J14" s="11">
+        <v>17040</v>
+      </c>
+      <c r="K14" s="12">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="L14" s="12">
+        <v>-6.8000000000000005E-2</v>
+      </c>
+      <c r="M14" s="12">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A15" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="10">
+        <v>3</v>
+      </c>
+      <c r="D15" s="10">
+        <v>3</v>
+      </c>
+      <c r="E15" s="11">
+        <v>68277</v>
+      </c>
+      <c r="F15" s="11">
+        <v>35646</v>
+      </c>
+      <c r="G15" s="11">
+        <v>32631</v>
+      </c>
+      <c r="H15" s="11">
+        <v>66189</v>
+      </c>
+      <c r="I15" s="11">
+        <v>33730</v>
+      </c>
+      <c r="J15" s="11">
+        <v>32459</v>
+      </c>
+      <c r="K15" s="12">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="L15" s="12">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="M15" s="12">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A16" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="10">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10">
+        <v>3</v>
+      </c>
+      <c r="E16" s="11">
+        <v>67917</v>
+      </c>
+      <c r="F16" s="11">
+        <v>36191</v>
+      </c>
+      <c r="G16" s="11">
+        <v>31726</v>
+      </c>
+      <c r="H16" s="11">
+        <v>66820</v>
+      </c>
+      <c r="I16" s="11">
+        <v>35319</v>
+      </c>
+      <c r="J16" s="11">
+        <v>31501</v>
+      </c>
+      <c r="K16" s="12">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="L16" s="12">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="M16" s="12">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A17" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4</v>
+      </c>
+      <c r="D17" s="10">
+        <v>4</v>
+      </c>
+      <c r="E17" s="11">
+        <v>81920</v>
+      </c>
+      <c r="F17" s="11">
+        <v>38507</v>
+      </c>
+      <c r="G17" s="11">
+        <v>43413</v>
+      </c>
+      <c r="H17" s="11">
+        <v>75286</v>
+      </c>
+      <c r="I17" s="11">
+        <v>35438</v>
+      </c>
+      <c r="J17" s="11">
+        <v>39848</v>
+      </c>
+      <c r="K17" s="12">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="L17" s="12">
+        <v>-0.08</v>
+      </c>
+      <c r="M17" s="12">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A18" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="10">
+        <v>3</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2</v>
+      </c>
+      <c r="E18" s="11">
+        <v>37308</v>
+      </c>
+      <c r="F18" s="11">
+        <v>20320</v>
+      </c>
+      <c r="G18" s="11">
+        <v>16988</v>
+      </c>
+      <c r="H18" s="11">
+        <v>35047</v>
+      </c>
+      <c r="I18" s="11">
+        <v>17692</v>
+      </c>
+      <c r="J18" s="11">
+        <v>17355</v>
+      </c>
+      <c r="K18" s="12">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+      <c r="L18" s="12">
+        <v>-0.129</v>
+      </c>
+      <c r="M18" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A19" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="10">
+        <v>5</v>
+      </c>
+      <c r="D19" s="10">
+        <v>4</v>
+      </c>
+      <c r="E19" s="11">
+        <v>74080</v>
+      </c>
+      <c r="F19" s="11">
+        <v>36532</v>
+      </c>
+      <c r="G19" s="11">
+        <v>37548</v>
+      </c>
+      <c r="H19" s="11">
+        <v>72757</v>
+      </c>
+      <c r="I19" s="11">
+        <v>36084</v>
+      </c>
+      <c r="J19" s="11">
+        <v>36673</v>
+      </c>
+      <c r="K19" s="12">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="L19" s="12">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="M19" s="12">
+        <v>-2.3E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A20" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="10">
+        <v>4</v>
+      </c>
+      <c r="D20" s="10">
+        <v>4</v>
+      </c>
+      <c r="E20" s="11">
+        <v>112228</v>
+      </c>
+      <c r="F20" s="11">
+        <v>53008</v>
+      </c>
+      <c r="G20" s="11">
+        <v>59220</v>
+      </c>
+      <c r="H20" s="11">
+        <v>109885</v>
+      </c>
+      <c r="I20" s="11">
+        <v>51742</v>
+      </c>
+      <c r="J20" s="11">
+        <v>58143</v>
+      </c>
+      <c r="K20" s="12">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="L20" s="12">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="M20" s="12">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A21" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2</v>
+      </c>
+      <c r="E21" s="11">
+        <v>39662</v>
+      </c>
+      <c r="F21" s="11">
+        <v>21638</v>
+      </c>
+      <c r="G21" s="11">
+        <v>18024</v>
+      </c>
+      <c r="H21" s="11">
+        <v>38216</v>
+      </c>
+      <c r="I21" s="11">
+        <v>20905</v>
+      </c>
+      <c r="J21" s="11">
+        <v>17311</v>
+      </c>
+      <c r="K21" s="12">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="L21" s="12">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="M21" s="12">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A22" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="10">
+        <v>5</v>
+      </c>
+      <c r="D22" s="10">
+        <v>4</v>
+      </c>
+      <c r="E22" s="11">
+        <v>53057</v>
+      </c>
+      <c r="F22" s="11">
+        <v>28294</v>
+      </c>
+      <c r="G22" s="11">
+        <v>24763</v>
+      </c>
+      <c r="H22" s="11">
+        <v>49224</v>
+      </c>
+      <c r="I22" s="11">
+        <v>26265</v>
+      </c>
+      <c r="J22" s="11">
+        <v>22959</v>
+      </c>
+      <c r="K22" s="12">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="K45" s="6">
+      <c r="L22" s="12">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="M22" s="12">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A23" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="10">
+        <v>4</v>
+      </c>
+      <c r="D23" s="10">
+        <v>3</v>
+      </c>
+      <c r="E23" s="11">
+        <v>51205</v>
+      </c>
+      <c r="F23" s="11">
+        <v>23048</v>
+      </c>
+      <c r="G23" s="11">
+        <v>28157</v>
+      </c>
+      <c r="H23" s="11">
+        <v>47896</v>
+      </c>
+      <c r="I23" s="11">
+        <v>22040</v>
+      </c>
+      <c r="J23" s="11">
+        <v>25856</v>
+      </c>
+      <c r="K23" s="12">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+      <c r="L23" s="12">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="M23" s="12">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A24" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="10">
+        <v>4</v>
+      </c>
+      <c r="E24" s="11">
+        <v>53049</v>
+      </c>
+      <c r="F24" s="11">
+        <v>26400</v>
+      </c>
+      <c r="G24" s="11">
+        <v>26649</v>
+      </c>
+      <c r="H24" s="11">
+        <v>51005</v>
+      </c>
+      <c r="I24" s="11">
+        <v>24849</v>
+      </c>
+      <c r="J24" s="11">
+        <v>26156</v>
+      </c>
+      <c r="K24" s="12">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="L24" s="12">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="M24" s="12">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A25" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="10">
+        <v>5</v>
+      </c>
+      <c r="D25" s="10">
+        <v>5</v>
+      </c>
+      <c r="E25" s="11">
+        <v>83254</v>
+      </c>
+      <c r="F25" s="11">
+        <v>40812</v>
+      </c>
+      <c r="G25" s="11">
+        <v>42442</v>
+      </c>
+      <c r="H25" s="11">
+        <v>79212</v>
+      </c>
+      <c r="I25" s="11">
+        <v>39533</v>
+      </c>
+      <c r="J25" s="11">
+        <v>39679</v>
+      </c>
+      <c r="K25" s="12">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="L25" s="12">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="M25" s="12">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A26" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3</v>
+      </c>
+      <c r="D26" s="10">
+        <v>3</v>
+      </c>
+      <c r="E26" s="11">
+        <v>60395</v>
+      </c>
+      <c r="F26" s="11">
+        <v>29313</v>
+      </c>
+      <c r="G26" s="11">
+        <v>31082</v>
+      </c>
+      <c r="H26" s="11">
+        <v>57983</v>
+      </c>
+      <c r="I26" s="11">
+        <v>28154</v>
+      </c>
+      <c r="J26" s="11">
+        <v>29829</v>
+      </c>
+      <c r="K26" s="12">
+        <v>-0.04</v>
+      </c>
+      <c r="L26" s="12">
+        <v>-0.04</v>
+      </c>
+      <c r="M26" s="12">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A27" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="10">
+        <v>5</v>
+      </c>
+      <c r="D27" s="10">
+        <v>5</v>
+      </c>
+      <c r="E27" s="11">
+        <v>77601</v>
+      </c>
+      <c r="F27" s="11">
+        <v>38371</v>
+      </c>
+      <c r="G27" s="11">
+        <v>39230</v>
+      </c>
+      <c r="H27" s="11">
+        <v>72929</v>
+      </c>
+      <c r="I27" s="11">
+        <v>36216</v>
+      </c>
+      <c r="J27" s="11">
+        <v>36713</v>
+      </c>
+      <c r="K27" s="12">
+        <v>-0.06</v>
+      </c>
+      <c r="L27" s="12">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="M27" s="12">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A28" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="10">
+        <v>5</v>
+      </c>
+      <c r="D28" s="10">
+        <v>4</v>
+      </c>
+      <c r="E28" s="11">
+        <v>65718</v>
+      </c>
+      <c r="F28" s="11">
+        <v>31766</v>
+      </c>
+      <c r="G28" s="11">
+        <v>33952</v>
+      </c>
+      <c r="H28" s="11">
+        <v>58539</v>
+      </c>
+      <c r="I28" s="11">
+        <v>26225</v>
+      </c>
+      <c r="J28" s="11">
+        <v>32314</v>
+      </c>
+      <c r="K28" s="12">
+        <v>-0.109</v>
+      </c>
+      <c r="L28" s="12">
+        <v>-0.17399999999999999</v>
+      </c>
+      <c r="M28" s="12">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A29" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="10">
+        <v>6</v>
+      </c>
+      <c r="D29" s="10">
+        <v>7</v>
+      </c>
+      <c r="E29" s="11">
+        <v>94686</v>
+      </c>
+      <c r="F29" s="11">
+        <v>47039</v>
+      </c>
+      <c r="G29" s="11">
+        <v>47647</v>
+      </c>
+      <c r="H29" s="11">
+        <v>89962</v>
+      </c>
+      <c r="I29" s="11">
+        <v>45950</v>
+      </c>
+      <c r="J29" s="11">
+        <v>44012</v>
+      </c>
+      <c r="K29" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="L29" s="12">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="M29" s="12">
+        <v>-7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A30" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="10">
+        <v>5</v>
+      </c>
+      <c r="D30" s="10">
+        <v>4</v>
+      </c>
+      <c r="E30" s="11">
+        <v>91513</v>
+      </c>
+      <c r="F30" s="11">
+        <v>44478</v>
+      </c>
+      <c r="G30" s="11">
+        <v>47035</v>
+      </c>
+      <c r="H30" s="11">
+        <v>85745</v>
+      </c>
+      <c r="I30" s="11">
+        <v>41329</v>
+      </c>
+      <c r="J30" s="11">
+        <v>44416</v>
+      </c>
+      <c r="K30" s="12">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="L30" s="12">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="M30" s="12">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A31" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="10">
+        <v>2</v>
+      </c>
+      <c r="D31" s="10">
+        <v>2</v>
+      </c>
+      <c r="E31" s="11">
+        <v>73358</v>
+      </c>
+      <c r="F31" s="11">
+        <v>34524</v>
+      </c>
+      <c r="G31" s="11">
+        <v>38834</v>
+      </c>
+      <c r="H31" s="11">
+        <v>69640</v>
+      </c>
+      <c r="I31" s="11">
+        <v>32535</v>
+      </c>
+      <c r="J31" s="11">
+        <v>37105</v>
+      </c>
+      <c r="K31" s="12">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="L31" s="12">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="M31" s="12">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A32" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4</v>
+      </c>
+      <c r="D32" s="10">
+        <v>4</v>
+      </c>
+      <c r="E32" s="11">
+        <v>89433</v>
+      </c>
+      <c r="F32" s="11">
+        <v>50633</v>
+      </c>
+      <c r="G32" s="11">
+        <v>38800</v>
+      </c>
+      <c r="H32" s="11">
+        <v>84243</v>
+      </c>
+      <c r="I32" s="11">
+        <v>47434</v>
+      </c>
+      <c r="J32" s="11">
+        <v>36809</v>
+      </c>
+      <c r="K32" s="12">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="L32" s="12">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="M32" s="12">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A33" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+      <c r="D33" s="10">
+        <v>2</v>
+      </c>
+      <c r="E33" s="11">
+        <v>17197</v>
+      </c>
+      <c r="F33" s="11">
+        <v>9172</v>
+      </c>
+      <c r="G33" s="11">
+        <v>8025</v>
+      </c>
+      <c r="H33" s="11">
+        <v>16389</v>
+      </c>
+      <c r="I33" s="11">
+        <v>8704</v>
+      </c>
+      <c r="J33" s="11">
+        <v>7685</v>
+      </c>
+      <c r="K33" s="12">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="L33" s="12">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="M33" s="12">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A34" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
+      <c r="D34" s="10">
+        <v>4</v>
+      </c>
+      <c r="E34" s="11">
+        <v>99614</v>
+      </c>
+      <c r="F34" s="11">
+        <v>50967</v>
+      </c>
+      <c r="G34" s="11">
+        <v>48647</v>
+      </c>
+      <c r="H34" s="11">
+        <v>96252</v>
+      </c>
+      <c r="I34" s="11">
+        <v>49030</v>
+      </c>
+      <c r="J34" s="11">
+        <v>47222</v>
+      </c>
+      <c r="K34" s="12">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="L34" s="12">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="M34" s="12">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A35" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4</v>
+      </c>
+      <c r="D35" s="10">
+        <v>4</v>
+      </c>
+      <c r="E35" s="11">
+        <v>93399</v>
+      </c>
+      <c r="F35" s="11">
+        <v>46050</v>
+      </c>
+      <c r="G35" s="11">
+        <v>47349</v>
+      </c>
+      <c r="H35" s="11">
+        <v>88525</v>
+      </c>
+      <c r="I35" s="11">
+        <v>43720</v>
+      </c>
+      <c r="J35" s="11">
+        <v>44805</v>
+      </c>
+      <c r="K35" s="12">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="L35" s="12">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="M35" s="12">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A36" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="10">
+        <v>5</v>
+      </c>
+      <c r="D36" s="10">
+        <v>5</v>
+      </c>
+      <c r="E36" s="11">
+        <v>59020</v>
+      </c>
+      <c r="F36" s="11">
+        <v>29578</v>
+      </c>
+      <c r="G36" s="11">
+        <v>29442</v>
+      </c>
+      <c r="H36" s="11">
+        <v>55588</v>
+      </c>
+      <c r="I36" s="11">
+        <v>27444</v>
+      </c>
+      <c r="J36" s="11">
+        <v>28144</v>
+      </c>
+      <c r="K36" s="12">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="L36" s="12">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="M36" s="12">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A37" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="10">
+        <v>4</v>
+      </c>
+      <c r="D37" s="10">
+        <v>4</v>
+      </c>
+      <c r="E37" s="11">
+        <v>91268</v>
+      </c>
+      <c r="F37" s="11">
+        <v>47792</v>
+      </c>
+      <c r="G37" s="11">
+        <v>43476</v>
+      </c>
+      <c r="H37" s="11">
+        <v>86362</v>
+      </c>
+      <c r="I37" s="11">
+        <v>45185</v>
+      </c>
+      <c r="J37" s="11">
+        <v>41177</v>
+      </c>
+      <c r="K37" s="12">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="L37" s="12">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="M37" s="12">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A38" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="10">
+        <v>4</v>
+      </c>
+      <c r="D38" s="10">
+        <v>5</v>
+      </c>
+      <c r="E38" s="11">
+        <v>87227</v>
+      </c>
+      <c r="F38" s="11">
+        <v>44660</v>
+      </c>
+      <c r="G38" s="11">
+        <v>42567</v>
+      </c>
+      <c r="H38" s="11">
+        <v>82973</v>
+      </c>
+      <c r="I38" s="11">
+        <v>42513</v>
+      </c>
+      <c r="J38" s="11">
+        <v>40460</v>
+      </c>
+      <c r="K38" s="12">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="L38" s="12">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="M38" s="12">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A39" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" s="10">
+        <v>4</v>
+      </c>
+      <c r="D39" s="10">
+        <v>3</v>
+      </c>
+      <c r="E39" s="11">
+        <v>62708</v>
+      </c>
+      <c r="F39" s="11">
+        <v>34086</v>
+      </c>
+      <c r="G39" s="11">
+        <v>28622</v>
+      </c>
+      <c r="H39" s="11">
+        <v>59920</v>
+      </c>
+      <c r="I39" s="11">
+        <v>32599</v>
+      </c>
+      <c r="J39" s="11">
+        <v>27321</v>
+      </c>
+      <c r="K39" s="12">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="L39" s="12">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="M39" s="12">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A40" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" s="10">
+        <v>5</v>
+      </c>
+      <c r="D40" s="10">
+        <v>4</v>
+      </c>
+      <c r="E40" s="11">
+        <v>102715</v>
+      </c>
+      <c r="F40" s="11">
+        <v>53970</v>
+      </c>
+      <c r="G40" s="11">
+        <v>48745</v>
+      </c>
+      <c r="H40" s="11">
+        <v>97696</v>
+      </c>
+      <c r="I40" s="11">
+        <v>52312</v>
+      </c>
+      <c r="J40" s="11">
+        <v>45384</v>
+      </c>
+      <c r="K40" s="12">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="L40" s="12">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="M40" s="12">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A41" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="10">
+        <v>5</v>
+      </c>
+      <c r="D41" s="10">
+        <v>6</v>
+      </c>
+      <c r="E41" s="11">
+        <v>64788</v>
+      </c>
+      <c r="F41" s="11">
+        <v>35047</v>
+      </c>
+      <c r="G41" s="11">
+        <v>29741</v>
+      </c>
+      <c r="H41" s="11">
+        <v>62667</v>
+      </c>
+      <c r="I41" s="11">
+        <v>34739</v>
+      </c>
+      <c r="J41" s="11">
+        <v>27928</v>
+      </c>
+      <c r="K41" s="12">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="L41" s="12">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="M41" s="12">
+        <v>-6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A42" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" s="10">
+        <v>2</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2</v>
+      </c>
+      <c r="E42" s="11">
+        <v>64810</v>
+      </c>
+      <c r="F42" s="11">
+        <v>28610</v>
+      </c>
+      <c r="G42" s="11">
+        <v>36200</v>
+      </c>
+      <c r="H42" s="11">
+        <v>59623</v>
+      </c>
+      <c r="I42" s="11">
+        <v>26515</v>
+      </c>
+      <c r="J42" s="11">
+        <v>33108</v>
+      </c>
+      <c r="K42" s="12">
+        <v>-0.08</v>
+      </c>
+      <c r="L42" s="12">
+        <v>-7.2999999999999995E-2</v>
+      </c>
+      <c r="M42" s="12">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A43" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C43" s="10">
+        <v>4</v>
+      </c>
+      <c r="D43" s="10">
+        <v>4</v>
+      </c>
+      <c r="E43" s="11">
+        <v>73987</v>
+      </c>
+      <c r="F43" s="11">
+        <v>30426</v>
+      </c>
+      <c r="G43" s="11">
+        <v>43561</v>
+      </c>
+      <c r="H43" s="11">
+        <v>68434</v>
+      </c>
+      <c r="I43" s="11">
+        <v>28024</v>
+      </c>
+      <c r="J43" s="11">
+        <v>40410</v>
+      </c>
+      <c r="K43" s="12">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="L45" s="6">
-        <v>-6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="5">
-        <v>67523</v>
-      </c>
-      <c r="E46" s="5">
-        <v>33220</v>
-      </c>
-      <c r="F46" s="5">
-        <v>34303</v>
-      </c>
-      <c r="G46" s="5">
-        <v>63672</v>
-      </c>
-      <c r="H46" s="5">
-        <v>31681</v>
-      </c>
-      <c r="I46" s="5">
-        <v>31991</v>
-      </c>
-      <c r="J46" s="6">
+      <c r="L43" s="12">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="M43" s="12">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A44" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" s="10">
+        <v>5</v>
+      </c>
+      <c r="D44" s="10">
+        <v>4</v>
+      </c>
+      <c r="E44" s="11">
+        <v>74310</v>
+      </c>
+      <c r="F44" s="11">
+        <v>38871</v>
+      </c>
+      <c r="G44" s="11">
+        <v>35439</v>
+      </c>
+      <c r="H44" s="11">
+        <v>69076</v>
+      </c>
+      <c r="I44" s="11">
+        <v>35664</v>
+      </c>
+      <c r="J44" s="11">
+        <v>33412</v>
+      </c>
+      <c r="K44" s="12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="L44" s="12">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="M44" s="12">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="K46" s="6">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-      <c r="L46" s="6">
-        <v>-6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="5">
-        <v>90527</v>
-      </c>
-      <c r="E47" s="5">
-        <v>48168</v>
-      </c>
-      <c r="F47" s="5">
-        <v>42359</v>
-      </c>
-      <c r="G47" s="5">
-        <v>86945</v>
-      </c>
-      <c r="H47" s="5">
-        <v>45522</v>
-      </c>
-      <c r="I47" s="5">
-        <v>41423</v>
-      </c>
-      <c r="J47" s="6">
-        <v>-0.04</v>
-      </c>
-      <c r="K47" s="6">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="L47" s="6">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="5">
-        <v>87339</v>
-      </c>
-      <c r="E48" s="5">
-        <v>45685</v>
-      </c>
-      <c r="F48" s="5">
-        <v>41654</v>
-      </c>
-      <c r="G48" s="5">
-        <v>83631</v>
-      </c>
-      <c r="H48" s="5">
-        <v>43511</v>
-      </c>
-      <c r="I48" s="5">
-        <v>40120</v>
-      </c>
-      <c r="J48" s="6">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-      <c r="K48" s="6">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-      <c r="L48" s="6">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A45" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" s="10">
+        <v>4</v>
+      </c>
+      <c r="D45" s="10">
+        <v>3</v>
+      </c>
+      <c r="E45" s="11">
+        <v>38933</v>
+      </c>
+      <c r="F45" s="11">
+        <v>20462</v>
+      </c>
+      <c r="G45" s="11">
+        <v>18471</v>
+      </c>
+      <c r="H45" s="11">
+        <v>36845</v>
+      </c>
+      <c r="I45" s="11">
+        <v>19711</v>
+      </c>
+      <c r="J45" s="11">
+        <v>17134</v>
+      </c>
+      <c r="K45" s="12">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="L45" s="12">
         <v>-3.6999999999999998E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="5">
-        <v>68858</v>
-      </c>
-      <c r="E49" s="5">
-        <v>35282</v>
-      </c>
-      <c r="F49" s="5">
-        <v>33576</v>
-      </c>
-      <c r="G49" s="5">
-        <v>66376</v>
-      </c>
-      <c r="H49" s="5">
-        <v>34097</v>
-      </c>
-      <c r="I49" s="5">
-        <v>32279</v>
-      </c>
-      <c r="J49" s="6">
-        <v>-3.5999999999999997E-2</v>
-      </c>
-      <c r="K49" s="6">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="L49" s="6">
+      <c r="M45" s="12">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A46" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46" s="10">
+        <v>5</v>
+      </c>
+      <c r="D46" s="10">
+        <v>5</v>
+      </c>
+      <c r="E46" s="11">
+        <v>79851</v>
+      </c>
+      <c r="F46" s="11">
+        <v>39519</v>
+      </c>
+      <c r="G46" s="11">
+        <v>40332</v>
+      </c>
+      <c r="H46" s="11">
+        <v>75776</v>
+      </c>
+      <c r="I46" s="11">
+        <v>37974</v>
+      </c>
+      <c r="J46" s="11">
+        <v>37802</v>
+      </c>
+      <c r="K46" s="12">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="L46" s="12">
         <v>-3.9E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="5">
-        <v>69677</v>
-      </c>
-      <c r="E50" s="5">
-        <v>33125</v>
-      </c>
-      <c r="F50" s="5">
-        <v>36552</v>
-      </c>
-      <c r="G50" s="5">
-        <v>67793</v>
-      </c>
-      <c r="H50" s="5">
-        <v>31885</v>
-      </c>
-      <c r="I50" s="5">
-        <v>35908</v>
-      </c>
-      <c r="J50" s="6">
-        <v>-2.7E-2</v>
-      </c>
-      <c r="K50" s="6">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-      <c r="L50" s="6">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D51" s="5">
-        <v>71331</v>
-      </c>
-      <c r="E51" s="5">
-        <v>38600</v>
-      </c>
-      <c r="F51" s="5">
-        <v>32731</v>
-      </c>
-      <c r="G51" s="5">
-        <v>69489</v>
-      </c>
-      <c r="H51" s="5">
-        <v>37857</v>
-      </c>
-      <c r="I51" s="5">
-        <v>31632</v>
-      </c>
-      <c r="J51" s="6">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="K51" s="6">
-        <v>-1.9E-2</v>
-      </c>
-      <c r="L51" s="6">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="5">
-        <v>60188</v>
-      </c>
-      <c r="E52" s="5">
-        <v>30863</v>
-      </c>
-      <c r="F52" s="5">
-        <v>29325</v>
-      </c>
-      <c r="G52" s="5">
-        <v>57141</v>
-      </c>
-      <c r="H52" s="5">
-        <v>29520</v>
-      </c>
-      <c r="I52" s="5">
-        <v>27621</v>
-      </c>
-      <c r="J52" s="6">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-      <c r="K52" s="6">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="L52" s="6">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="5">
-        <v>69384</v>
-      </c>
-      <c r="E53" s="5">
-        <v>34278</v>
-      </c>
-      <c r="F53" s="5">
-        <v>35106</v>
-      </c>
-      <c r="G53" s="5">
-        <v>67887</v>
-      </c>
-      <c r="H53" s="5">
-        <v>33260</v>
-      </c>
-      <c r="I53" s="5">
-        <v>34627</v>
-      </c>
-      <c r="J53" s="6">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-      <c r="K53" s="6">
-        <v>-0.03</v>
-      </c>
-      <c r="L53" s="6">
-        <v>-1.4E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="5">
-        <v>46769</v>
-      </c>
-      <c r="E54" s="5">
-        <v>23226</v>
-      </c>
-      <c r="F54" s="5">
-        <v>23543</v>
-      </c>
-      <c r="G54" s="5">
-        <v>44897</v>
-      </c>
-      <c r="H54" s="5">
-        <v>22574</v>
-      </c>
-      <c r="I54" s="5">
-        <v>22323</v>
-      </c>
-      <c r="J54" s="6">
-        <v>-0.04</v>
-      </c>
-      <c r="K54" s="6">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="L54" s="6">
-        <v>-5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="5">
-        <v>121732</v>
-      </c>
-      <c r="E55" s="5">
-        <v>60131</v>
-      </c>
-      <c r="F55" s="5">
-        <v>61601</v>
-      </c>
-      <c r="G55" s="5">
-        <v>117986</v>
-      </c>
-      <c r="H55" s="5">
-        <v>58243</v>
-      </c>
-      <c r="I55" s="5">
-        <v>59743</v>
-      </c>
-      <c r="J55" s="6">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="K55" s="6">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="L55" s="6">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" s="5">
-        <v>42237</v>
-      </c>
-      <c r="E56" s="5">
-        <v>23305</v>
-      </c>
-      <c r="F56" s="5">
-        <v>18932</v>
-      </c>
-      <c r="G56" s="5">
-        <v>38770</v>
-      </c>
-      <c r="H56" s="5">
-        <v>21730</v>
-      </c>
-      <c r="I56" s="5">
-        <v>17040</v>
-      </c>
-      <c r="J56" s="6">
-        <v>-8.2000000000000003E-2</v>
-      </c>
-      <c r="K56" s="6">
-        <v>-6.8000000000000005E-2</v>
-      </c>
-      <c r="L56" s="6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="5">
-        <v>68277</v>
-      </c>
-      <c r="E57" s="5">
-        <v>35646</v>
-      </c>
-      <c r="F57" s="5">
-        <v>32631</v>
-      </c>
-      <c r="G57" s="5">
-        <v>66189</v>
-      </c>
-      <c r="H57" s="5">
-        <v>33730</v>
-      </c>
-      <c r="I57" s="5">
-        <v>32459</v>
-      </c>
-      <c r="J57" s="6">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="K57" s="6">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-      <c r="L57" s="6">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" s="5">
-        <v>67917</v>
-      </c>
-      <c r="E58" s="5">
-        <v>36191</v>
-      </c>
-      <c r="F58" s="5">
-        <v>31726</v>
-      </c>
-      <c r="G58" s="5">
-        <v>66820</v>
-      </c>
-      <c r="H58" s="5">
-        <v>35319</v>
-      </c>
-      <c r="I58" s="5">
-        <v>31501</v>
-      </c>
-      <c r="J58" s="6">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="K58" s="6">
-        <v>-2.4E-2</v>
-      </c>
-      <c r="L58" s="6">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="5">
-        <v>81920</v>
-      </c>
-      <c r="E59" s="5">
-        <v>38507</v>
-      </c>
-      <c r="F59" s="5">
-        <v>43413</v>
-      </c>
-      <c r="G59" s="5">
-        <v>75286</v>
-      </c>
-      <c r="H59" s="5">
-        <v>35438</v>
-      </c>
-      <c r="I59" s="5">
-        <v>39848</v>
-      </c>
-      <c r="J59" s="6">
-        <v>-8.1000000000000003E-2</v>
-      </c>
-      <c r="K59" s="6">
-        <v>-0.08</v>
-      </c>
-      <c r="L59" s="6">
-        <v>-8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D60" s="5">
-        <v>37308</v>
-      </c>
-      <c r="E60" s="5">
-        <v>20320</v>
-      </c>
-      <c r="F60" s="5">
-        <v>16988</v>
-      </c>
-      <c r="G60" s="5">
-        <v>35047</v>
-      </c>
-      <c r="H60" s="5">
-        <v>17692</v>
-      </c>
-      <c r="I60" s="5">
-        <v>17355</v>
-      </c>
-      <c r="J60" s="6">
-        <v>-6.0999999999999999E-2</v>
-      </c>
-      <c r="K60" s="6">
-        <v>-0.129</v>
-      </c>
-      <c r="L60" s="6">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D61" s="5">
-        <v>74080</v>
-      </c>
-      <c r="E61" s="5">
-        <v>36532</v>
-      </c>
-      <c r="F61" s="5">
-        <v>37548</v>
-      </c>
-      <c r="G61" s="5">
-        <v>72757</v>
-      </c>
-      <c r="H61" s="5">
-        <v>36084</v>
-      </c>
-      <c r="I61" s="5">
-        <v>36673</v>
-      </c>
-      <c r="J61" s="6">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="K61" s="6">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="L61" s="6">
-        <v>-2.3E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="5">
-        <v>112228</v>
-      </c>
-      <c r="E62" s="5">
-        <v>53008</v>
-      </c>
-      <c r="F62" s="5">
-        <v>59220</v>
-      </c>
-      <c r="G62" s="5">
-        <v>109885</v>
-      </c>
-      <c r="H62" s="5">
-        <v>51742</v>
-      </c>
-      <c r="I62" s="5">
-        <v>58143</v>
-      </c>
-      <c r="J62" s="6">
-        <v>-2.1000000000000001E-2</v>
-      </c>
-      <c r="K62" s="6">
-        <v>-2.4E-2</v>
-      </c>
-      <c r="L62" s="6">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="5">
-        <v>39662</v>
-      </c>
-      <c r="E63" s="5">
-        <v>21638</v>
-      </c>
-      <c r="F63" s="5">
-        <v>18024</v>
-      </c>
-      <c r="G63" s="5">
-        <v>38216</v>
-      </c>
-      <c r="H63" s="5">
-        <v>20905</v>
-      </c>
-      <c r="I63" s="5">
-        <v>17311</v>
-      </c>
-      <c r="J63" s="6">
-        <v>-3.5999999999999997E-2</v>
-      </c>
-      <c r="K63" s="6">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="L63" s="6">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D64" s="5">
-        <v>53057</v>
-      </c>
-      <c r="E64" s="5">
-        <v>28294</v>
-      </c>
-      <c r="F64" s="5">
-        <v>24763</v>
-      </c>
-      <c r="G64" s="5">
-        <v>49224</v>
-      </c>
-      <c r="H64" s="5">
-        <v>26265</v>
-      </c>
-      <c r="I64" s="5">
-        <v>22959</v>
-      </c>
-      <c r="J64" s="6">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-      <c r="K64" s="6">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-      <c r="L64" s="6">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" s="5">
-        <v>51205</v>
-      </c>
-      <c r="E65" s="5">
-        <v>23048</v>
-      </c>
-      <c r="F65" s="5">
-        <v>28157</v>
-      </c>
-      <c r="G65" s="5">
-        <v>47896</v>
-      </c>
-      <c r="H65" s="5">
-        <v>22040</v>
-      </c>
-      <c r="I65" s="5">
-        <v>25856</v>
-      </c>
-      <c r="J65" s="6">
-        <v>-6.5000000000000002E-2</v>
-      </c>
-      <c r="K65" s="6">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="L65" s="6">
-        <v>-8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="5">
-        <v>53049</v>
-      </c>
-      <c r="E66" s="5">
-        <v>26400</v>
-      </c>
-      <c r="F66" s="5">
-        <v>26649</v>
-      </c>
-      <c r="G66" s="5">
-        <v>51005</v>
-      </c>
-      <c r="H66" s="5">
-        <v>24849</v>
-      </c>
-      <c r="I66" s="5">
-        <v>26156</v>
-      </c>
-      <c r="J66" s="6">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="K66" s="6">
-        <v>-5.8999999999999997E-2</v>
-      </c>
-      <c r="L66" s="6">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D67" s="5">
-        <v>83254</v>
-      </c>
-      <c r="E67" s="5">
-        <v>40812</v>
-      </c>
-      <c r="F67" s="5">
-        <v>42442</v>
-      </c>
-      <c r="G67" s="5">
-        <v>79212</v>
-      </c>
-      <c r="H67" s="5">
-        <v>39533</v>
-      </c>
-      <c r="I67" s="5">
-        <v>39679</v>
-      </c>
-      <c r="J67" s="6">
-        <v>-4.9000000000000002E-2</v>
-      </c>
-      <c r="K67" s="6">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="L67" s="6">
-        <v>-6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" s="5">
-        <v>60395</v>
-      </c>
-      <c r="E68" s="5">
-        <v>29313</v>
-      </c>
-      <c r="F68" s="5">
-        <v>31082</v>
-      </c>
-      <c r="G68" s="5">
-        <v>57983</v>
-      </c>
-      <c r="H68" s="5">
-        <v>28154</v>
-      </c>
-      <c r="I68" s="5">
-        <v>29829</v>
-      </c>
-      <c r="J68" s="6">
-        <v>-0.04</v>
-      </c>
-      <c r="K68" s="6">
-        <v>-0.04</v>
-      </c>
-      <c r="L68" s="6">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D69" s="5">
-        <v>77601</v>
-      </c>
-      <c r="E69" s="5">
-        <v>38371</v>
-      </c>
-      <c r="F69" s="5">
-        <v>39230</v>
-      </c>
-      <c r="G69" s="5">
-        <v>72929</v>
-      </c>
-      <c r="H69" s="5">
-        <v>36216</v>
-      </c>
-      <c r="I69" s="5">
-        <v>36713</v>
-      </c>
-      <c r="J69" s="6">
-        <v>-0.06</v>
-      </c>
-      <c r="K69" s="6">
-        <v>-5.6000000000000001E-2</v>
-      </c>
-      <c r="L69" s="6">
-        <v>-6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D70" s="5">
-        <v>65718</v>
-      </c>
-      <c r="E70" s="5">
-        <v>31766</v>
-      </c>
-      <c r="F70" s="5">
-        <v>33952</v>
-      </c>
-      <c r="G70" s="5">
-        <v>58539</v>
-      </c>
-      <c r="H70" s="5">
-        <v>26225</v>
-      </c>
-      <c r="I70" s="5">
-        <v>32314</v>
-      </c>
-      <c r="J70" s="6">
-        <v>-0.109</v>
-      </c>
-      <c r="K70" s="6">
-        <v>-0.17399999999999999</v>
-      </c>
-      <c r="L70" s="6">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D71" s="5">
-        <v>94686</v>
-      </c>
-      <c r="E71" s="5">
-        <v>47039</v>
-      </c>
-      <c r="F71" s="5">
-        <v>47647</v>
-      </c>
-      <c r="G71" s="5">
-        <v>89962</v>
-      </c>
-      <c r="H71" s="5">
-        <v>45950</v>
-      </c>
-      <c r="I71" s="5">
-        <v>44012</v>
-      </c>
-      <c r="J71" s="6">
-        <v>-0.05</v>
-      </c>
-      <c r="K71" s="6">
-        <v>-2.3E-2</v>
-      </c>
-      <c r="L71" s="6">
-        <v>-7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D72" s="5">
-        <v>91513</v>
-      </c>
-      <c r="E72" s="5">
-        <v>44478</v>
-      </c>
-      <c r="F72" s="5">
-        <v>47035</v>
-      </c>
-      <c r="G72" s="5">
-        <v>85745</v>
-      </c>
-      <c r="H72" s="5">
-        <v>41329</v>
-      </c>
-      <c r="I72" s="5">
-        <v>44416</v>
-      </c>
-      <c r="J72" s="6">
-        <v>-6.3E-2</v>
-      </c>
-      <c r="K72" s="6">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-      <c r="L72" s="6">
-        <v>-5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" s="5">
-        <v>73358</v>
-      </c>
-      <c r="E73" s="5">
-        <v>34524</v>
-      </c>
-      <c r="F73" s="5">
-        <v>38834</v>
-      </c>
-      <c r="G73" s="5">
-        <v>69640</v>
-      </c>
-      <c r="H73" s="5">
-        <v>32535</v>
-      </c>
-      <c r="I73" s="5">
-        <v>37105</v>
-      </c>
-      <c r="J73" s="6">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-      <c r="K73" s="6">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-      <c r="L73" s="6">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D74" s="5">
-        <v>89433</v>
-      </c>
-      <c r="E74" s="5">
-        <v>50633</v>
-      </c>
-      <c r="F74" s="5">
-        <v>38800</v>
-      </c>
-      <c r="G74" s="5">
-        <v>84243</v>
-      </c>
-      <c r="H74" s="5">
-        <v>47434</v>
-      </c>
-      <c r="I74" s="5">
-        <v>36809</v>
-      </c>
-      <c r="J74" s="6">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-      <c r="K74" s="6">
-        <v>-6.3E-2</v>
-      </c>
-      <c r="L74" s="6">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75" s="5">
-        <v>17197</v>
-      </c>
-      <c r="E75" s="5">
-        <v>9172</v>
-      </c>
-      <c r="F75" s="5">
-        <v>8025</v>
-      </c>
-      <c r="G75" s="5">
-        <v>16389</v>
-      </c>
-      <c r="H75" s="5">
-        <v>8704</v>
-      </c>
-      <c r="I75" s="5">
-        <v>7685</v>
-      </c>
-      <c r="J75" s="6">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="K75" s="6">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-      <c r="L75" s="6">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" s="5">
-        <v>99614</v>
-      </c>
-      <c r="E76" s="5">
-        <v>50967</v>
-      </c>
-      <c r="F76" s="5">
-        <v>48647</v>
-      </c>
-      <c r="G76" s="5">
-        <v>96252</v>
-      </c>
-      <c r="H76" s="5">
-        <v>49030</v>
-      </c>
-      <c r="I76" s="5">
-        <v>47222</v>
-      </c>
-      <c r="J76" s="6">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="K76" s="6">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="L76" s="6">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77" s="5">
-        <v>93399</v>
-      </c>
-      <c r="E77" s="5">
-        <v>46050</v>
-      </c>
-      <c r="F77" s="5">
-        <v>47349</v>
-      </c>
-      <c r="G77" s="5">
-        <v>88525</v>
-      </c>
-      <c r="H77" s="5">
-        <v>43720</v>
-      </c>
-      <c r="I77" s="5">
-        <v>44805</v>
-      </c>
-      <c r="J77" s="6">
-        <v>-5.1999999999999998E-2</v>
-      </c>
-      <c r="K77" s="6">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-      <c r="L77" s="6">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D78" s="5">
-        <v>59020</v>
-      </c>
-      <c r="E78" s="5">
-        <v>29578</v>
-      </c>
-      <c r="F78" s="5">
-        <v>29442</v>
-      </c>
-      <c r="G78" s="5">
-        <v>55588</v>
-      </c>
-      <c r="H78" s="5">
-        <v>27444</v>
-      </c>
-      <c r="I78" s="5">
-        <v>28144</v>
-      </c>
-      <c r="J78" s="6">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-      <c r="K78" s="6">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-      <c r="L78" s="6">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D79" s="5">
-        <v>91268</v>
-      </c>
-      <c r="E79" s="5">
-        <v>47792</v>
-      </c>
-      <c r="F79" s="5">
-        <v>43476</v>
-      </c>
-      <c r="G79" s="5">
-        <v>86362</v>
-      </c>
-      <c r="H79" s="5">
-        <v>45185</v>
-      </c>
-      <c r="I79" s="5">
-        <v>41177</v>
-      </c>
-      <c r="J79" s="6">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-      <c r="K79" s="6">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="L79" s="6">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D80" s="5">
-        <v>87227</v>
-      </c>
-      <c r="E80" s="5">
-        <v>44660</v>
-      </c>
-      <c r="F80" s="5">
-        <v>42567</v>
-      </c>
-      <c r="G80" s="5">
-        <v>82973</v>
-      </c>
-      <c r="H80" s="5">
-        <v>42513</v>
-      </c>
-      <c r="I80" s="5">
-        <v>40460</v>
-      </c>
-      <c r="J80" s="6">
-        <v>-4.9000000000000002E-2</v>
-      </c>
-      <c r="K80" s="6">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-      <c r="L80" s="6">
-        <v>-4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" s="5">
-        <v>62708</v>
-      </c>
-      <c r="E81" s="5">
-        <v>34086</v>
-      </c>
-      <c r="F81" s="5">
-        <v>28622</v>
-      </c>
-      <c r="G81" s="5">
-        <v>59920</v>
-      </c>
-      <c r="H81" s="5">
-        <v>32599</v>
-      </c>
-      <c r="I81" s="5">
-        <v>27321</v>
-      </c>
-      <c r="J81" s="6">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="K81" s="6">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="L81" s="6">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D82" s="5">
-        <v>102715</v>
-      </c>
-      <c r="E82" s="5">
-        <v>53970</v>
-      </c>
-      <c r="F82" s="5">
-        <v>48745</v>
-      </c>
-      <c r="G82" s="5">
-        <v>97696</v>
-      </c>
-      <c r="H82" s="5">
-        <v>52312</v>
-      </c>
-      <c r="I82" s="5">
-        <v>45384</v>
-      </c>
-      <c r="J82" s="6">
-        <v>-4.9000000000000002E-2</v>
-      </c>
-      <c r="K82" s="6">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="L82" s="6">
-        <v>-6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D83" s="5">
-        <v>64788</v>
-      </c>
-      <c r="E83" s="5">
-        <v>35047</v>
-      </c>
-      <c r="F83" s="5">
-        <v>29741</v>
-      </c>
-      <c r="G83" s="5">
-        <v>62667</v>
-      </c>
-      <c r="H83" s="5">
-        <v>34739</v>
-      </c>
-      <c r="I83" s="5">
-        <v>27928</v>
-      </c>
-      <c r="J83" s="6">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="K83" s="6">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="L83" s="6">
-        <v>-6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D84" s="5">
-        <v>64810</v>
-      </c>
-      <c r="E84" s="5">
-        <v>28610</v>
-      </c>
-      <c r="F84" s="5">
-        <v>36200</v>
-      </c>
-      <c r="G84" s="5">
-        <v>59623</v>
-      </c>
-      <c r="H84" s="5">
-        <v>26515</v>
-      </c>
-      <c r="I84" s="5">
-        <v>33108</v>
-      </c>
-      <c r="J84" s="6">
-        <v>-0.08</v>
-      </c>
-      <c r="K84" s="6">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-      <c r="L84" s="6">
-        <v>-8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D85" s="5">
-        <v>73987</v>
-      </c>
-      <c r="E85" s="5">
-        <v>30426</v>
-      </c>
-      <c r="F85" s="5">
-        <v>43561</v>
-      </c>
-      <c r="G85" s="5">
-        <v>68434</v>
-      </c>
-      <c r="H85" s="5">
-        <v>28024</v>
-      </c>
-      <c r="I85" s="5">
-        <v>40410</v>
-      </c>
-      <c r="J85" s="6">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="K85" s="6">
-        <v>-7.9000000000000001E-2</v>
-      </c>
-      <c r="L85" s="6">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D86" s="5">
-        <v>74310</v>
-      </c>
-      <c r="E86" s="5">
-        <v>38871</v>
-      </c>
-      <c r="F86" s="5">
-        <v>35439</v>
-      </c>
-      <c r="G86" s="5">
-        <v>69076</v>
-      </c>
-      <c r="H86" s="5">
-        <v>35664</v>
-      </c>
-      <c r="I86" s="5">
-        <v>33412</v>
-      </c>
-      <c r="J86" s="6">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="K86" s="6">
-        <v>-8.3000000000000004E-2</v>
-      </c>
-      <c r="L86" s="6">
-        <v>-5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D87" s="5">
-        <v>38933</v>
-      </c>
-      <c r="E87" s="5">
-        <v>20462</v>
-      </c>
-      <c r="F87" s="5">
-        <v>18471</v>
-      </c>
-      <c r="G87" s="5">
-        <v>36845</v>
-      </c>
-      <c r="H87" s="5">
-        <v>19711</v>
-      </c>
-      <c r="I87" s="5">
-        <v>17134</v>
-      </c>
-      <c r="J87" s="6">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-      <c r="K87" s="6">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-      <c r="L87" s="6">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D88" s="5">
-        <v>79851</v>
-      </c>
-      <c r="E88" s="5">
-        <v>39519</v>
-      </c>
-      <c r="F88" s="5">
-        <v>40332</v>
-      </c>
-      <c r="G88" s="5">
-        <v>75776</v>
-      </c>
-      <c r="H88" s="5">
-        <v>37974</v>
-      </c>
-      <c r="I88" s="5">
-        <v>37802</v>
-      </c>
-      <c r="J88" s="6">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-      <c r="K88" s="6">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="L88" s="6">
+      <c r="M46" s="12">
         <v>-6.3E-2</v>
       </c>
     </row>
@@ -10753,1764 +10397,928 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3491780-72BD-4636-B1AB-8E6910A44821}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>354</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>355</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
-        <v>179</v>
+        <v>360</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="5">
-        <v>45876</v>
+        <v>361</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4</v>
       </c>
       <c r="E2" s="5">
-        <v>22487</v>
+        <v>254969</v>
       </c>
       <c r="F2" s="5">
-        <v>23389</v>
+        <v>141449</v>
       </c>
       <c r="G2" s="5">
-        <v>43895</v>
+        <v>113520</v>
       </c>
       <c r="H2" s="5">
-        <v>21584</v>
+        <v>244332</v>
       </c>
       <c r="I2" s="5">
-        <v>22311</v>
-      </c>
-      <c r="J2" s="6">
+        <v>136213</v>
+      </c>
+      <c r="J2" s="5">
+        <v>108119</v>
+      </c>
+      <c r="K2" s="6">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="L2" s="6">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="M2" s="6">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A3" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>241143</v>
+      </c>
+      <c r="F3" s="5">
+        <v>117544</v>
+      </c>
+      <c r="G3" s="5">
+        <v>123599</v>
+      </c>
+      <c r="H3" s="5">
+        <v>230067</v>
+      </c>
+      <c r="I3" s="5">
+        <v>111458</v>
+      </c>
+      <c r="J3" s="5">
+        <v>118609</v>
+      </c>
+      <c r="K3" s="6">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="L3" s="6">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+      <c r="M3" s="6">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A4" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>147216</v>
+      </c>
+      <c r="F4" s="5">
+        <v>75097</v>
+      </c>
+      <c r="G4" s="5">
+        <v>72119</v>
+      </c>
+      <c r="H4" s="5">
+        <v>140897</v>
+      </c>
+      <c r="I4" s="5">
+        <v>71523</v>
+      </c>
+      <c r="J4" s="5">
+        <v>69374</v>
+      </c>
+      <c r="K4" s="6">
         <v>-4.2999999999999997E-2</v>
       </c>
-      <c r="K2" s="6">
-        <v>-0.04</v>
-      </c>
-      <c r="L2" s="6">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="5">
-        <v>45747</v>
-      </c>
-      <c r="E3" s="5">
-        <v>23434</v>
-      </c>
-      <c r="F3" s="5">
-        <v>22313</v>
-      </c>
-      <c r="G3" s="5">
-        <v>42455</v>
-      </c>
-      <c r="H3" s="5">
-        <v>21672</v>
-      </c>
-      <c r="I3" s="5">
-        <v>20783</v>
-      </c>
-      <c r="J3" s="6">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-      <c r="K3" s="6">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="L3" s="6">
-        <v>-6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="5">
-        <v>67523</v>
-      </c>
-      <c r="E4" s="5">
-        <v>33220</v>
-      </c>
-      <c r="F4" s="5">
-        <v>34303</v>
-      </c>
-      <c r="G4" s="5">
-        <v>63672</v>
-      </c>
-      <c r="H4" s="5">
-        <v>31681</v>
-      </c>
-      <c r="I4" s="5">
-        <v>31991</v>
-      </c>
-      <c r="J4" s="6">
-        <v>-5.7000000000000002E-2</v>
-      </c>
-      <c r="K4" s="6">
-        <v>-4.5999999999999999E-2</v>
-      </c>
       <c r="L4" s="6">
-        <v>-6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="M4" s="6">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A5" s="3" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="5">
-        <v>90527</v>
+        <v>367</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
       </c>
       <c r="E5" s="5">
-        <v>48168</v>
+        <v>113199</v>
       </c>
       <c r="F5" s="5">
-        <v>42359</v>
+        <v>53742</v>
       </c>
       <c r="G5" s="5">
-        <v>86945</v>
+        <v>59457</v>
       </c>
       <c r="H5" s="5">
-        <v>45522</v>
+        <v>108305</v>
       </c>
       <c r="I5" s="5">
-        <v>41423</v>
-      </c>
-      <c r="J5" s="6">
-        <v>-0.04</v>
+        <v>51838</v>
+      </c>
+      <c r="J5" s="5">
+        <v>56467</v>
       </c>
       <c r="K5" s="6">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="M5" s="6">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A6" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>143081</v>
+      </c>
+      <c r="F6" s="5">
+        <v>64542</v>
+      </c>
+      <c r="G6" s="5">
+        <v>78539</v>
+      </c>
+      <c r="H6" s="5">
+        <v>137834</v>
+      </c>
+      <c r="I6" s="5">
+        <v>62335</v>
+      </c>
+      <c r="J6" s="5">
+        <v>75499</v>
+      </c>
+      <c r="K6" s="6">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="L6" s="6">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="M6" s="6">
+        <v>-3.9E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A7" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>206126</v>
+      </c>
+      <c r="F7" s="5">
+        <v>101220</v>
+      </c>
+      <c r="G7" s="5">
+        <v>104906</v>
+      </c>
+      <c r="H7" s="5">
+        <v>194220</v>
+      </c>
+      <c r="I7" s="5">
+        <v>96711</v>
+      </c>
+      <c r="J7" s="5">
+        <v>97509</v>
+      </c>
+      <c r="K7" s="6">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="L7" s="6">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="M7" s="6">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A8" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>138940</v>
+      </c>
+      <c r="F8" s="5">
+        <v>69949</v>
+      </c>
+      <c r="G8" s="5">
+        <v>68991</v>
+      </c>
+      <c r="H8" s="5">
+        <v>137139</v>
+      </c>
+      <c r="I8" s="5">
+        <v>68156</v>
+      </c>
+      <c r="J8" s="5">
+        <v>68983</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="L8" s="6">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="50.65" x14ac:dyDescent="0.6">
+      <c r="A9" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>77652</v>
+      </c>
+      <c r="F9" s="5">
+        <v>38942</v>
+      </c>
+      <c r="G9" s="5">
+        <v>38710</v>
+      </c>
+      <c r="H9" s="5">
+        <v>83404</v>
+      </c>
+      <c r="I9" s="5">
+        <v>41615</v>
+      </c>
+      <c r="J9" s="5">
+        <v>41789</v>
+      </c>
+      <c r="K9" s="6">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="L9" s="6">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="33.75" x14ac:dyDescent="0.6">
+      <c r="A10" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>110603</v>
+      </c>
+      <c r="F10" s="5">
+        <v>50665</v>
+      </c>
+      <c r="G10" s="5">
+        <v>59938</v>
+      </c>
+      <c r="H10" s="5">
+        <v>104479</v>
+      </c>
+      <c r="I10" s="5">
+        <v>47885</v>
+      </c>
+      <c r="J10" s="5">
+        <v>56594</v>
+      </c>
+      <c r="K10" s="6">
         <v>-5.5E-2</v>
       </c>
-      <c r="L5" s="6">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="5">
-        <v>87339</v>
-      </c>
-      <c r="E6" s="5">
-        <v>45685</v>
-      </c>
-      <c r="F6" s="5">
-        <v>41654</v>
-      </c>
-      <c r="G6" s="5">
-        <v>83631</v>
-      </c>
-      <c r="H6" s="5">
-        <v>43511</v>
-      </c>
-      <c r="I6" s="5">
-        <v>40120</v>
-      </c>
-      <c r="J6" s="6">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-      <c r="K6" s="6">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-      <c r="L6" s="6">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="5">
-        <v>68858</v>
-      </c>
-      <c r="E7" s="5">
-        <v>35282</v>
-      </c>
-      <c r="F7" s="5">
-        <v>33576</v>
-      </c>
-      <c r="G7" s="5">
-        <v>66376</v>
-      </c>
-      <c r="H7" s="5">
-        <v>34097</v>
-      </c>
-      <c r="I7" s="5">
-        <v>32279</v>
-      </c>
-      <c r="J7" s="6">
-        <v>-3.5999999999999997E-2</v>
-      </c>
-      <c r="K7" s="6">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="L7" s="6">
-        <v>-3.9E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="5">
-        <v>69677</v>
-      </c>
-      <c r="E8" s="5">
-        <v>33125</v>
-      </c>
-      <c r="F8" s="5">
-        <v>36552</v>
-      </c>
-      <c r="G8" s="5">
-        <v>67793</v>
-      </c>
-      <c r="H8" s="5">
-        <v>31885</v>
-      </c>
-      <c r="I8" s="5">
-        <v>35908</v>
-      </c>
-      <c r="J8" s="6">
-        <v>-2.7E-2</v>
-      </c>
-      <c r="K8" s="6">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-      <c r="L8" s="6">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="5">
-        <v>71331</v>
-      </c>
-      <c r="E9" s="5">
-        <v>38600</v>
-      </c>
-      <c r="F9" s="5">
-        <v>32731</v>
-      </c>
-      <c r="G9" s="5">
-        <v>69489</v>
-      </c>
-      <c r="H9" s="5">
-        <v>37857</v>
-      </c>
-      <c r="I9" s="5">
-        <v>31632</v>
-      </c>
-      <c r="J9" s="6">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="K9" s="6">
-        <v>-1.9E-2</v>
-      </c>
-      <c r="L9" s="6">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="5">
-        <v>60188</v>
-      </c>
-      <c r="E10" s="5">
-        <v>30863</v>
-      </c>
-      <c r="F10" s="5">
-        <v>29325</v>
-      </c>
-      <c r="G10" s="5">
-        <v>57141</v>
-      </c>
-      <c r="H10" s="5">
-        <v>29520</v>
-      </c>
-      <c r="I10" s="5">
-        <v>27621</v>
-      </c>
-      <c r="J10" s="6">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-      <c r="K10" s="6">
-        <v>-4.3999999999999997E-2</v>
-      </c>
       <c r="L10" s="6">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="5">
-        <v>69384</v>
-      </c>
-      <c r="E11" s="5">
-        <v>34278</v>
-      </c>
-      <c r="F11" s="5">
-        <v>35106</v>
-      </c>
-      <c r="G11" s="5">
-        <v>67887</v>
-      </c>
-      <c r="H11" s="5">
-        <v>33260</v>
-      </c>
-      <c r="I11" s="5">
-        <v>34627</v>
-      </c>
-      <c r="J11" s="6">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-      <c r="K11" s="6">
-        <v>-0.03</v>
-      </c>
-      <c r="L11" s="6">
-        <v>-1.4E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="5">
-        <v>46769</v>
-      </c>
-      <c r="E12" s="5">
-        <v>23226</v>
-      </c>
-      <c r="F12" s="5">
-        <v>23543</v>
-      </c>
-      <c r="G12" s="5">
-        <v>44897</v>
-      </c>
-      <c r="H12" s="5">
-        <v>22574</v>
-      </c>
-      <c r="I12" s="5">
-        <v>22323</v>
-      </c>
-      <c r="J12" s="6">
-        <v>-0.04</v>
-      </c>
-      <c r="K12" s="6">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="L12" s="6">
-        <v>-5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="5">
-        <v>121732</v>
-      </c>
-      <c r="E13" s="5">
-        <v>60131</v>
-      </c>
-      <c r="F13" s="5">
-        <v>61601</v>
-      </c>
-      <c r="G13" s="5">
-        <v>117986</v>
-      </c>
-      <c r="H13" s="5">
-        <v>58243</v>
-      </c>
-      <c r="I13" s="5">
-        <v>59743</v>
-      </c>
-      <c r="J13" s="6">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="K13" s="6">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="L13" s="6">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="5">
-        <v>42237</v>
-      </c>
-      <c r="E14" s="5">
-        <v>23305</v>
-      </c>
-      <c r="F14" s="5">
-        <v>18932</v>
-      </c>
-      <c r="G14" s="5">
-        <v>38770</v>
-      </c>
-      <c r="H14" s="5">
-        <v>21730</v>
-      </c>
-      <c r="I14" s="5">
-        <v>17040</v>
-      </c>
-      <c r="J14" s="6">
-        <v>-8.2000000000000003E-2</v>
-      </c>
-      <c r="K14" s="6">
-        <v>-6.8000000000000005E-2</v>
-      </c>
-      <c r="L14" s="6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="5">
-        <v>68277</v>
-      </c>
-      <c r="E15" s="5">
-        <v>35646</v>
-      </c>
-      <c r="F15" s="5">
-        <v>32631</v>
-      </c>
-      <c r="G15" s="5">
-        <v>66189</v>
-      </c>
-      <c r="H15" s="5">
-        <v>33730</v>
-      </c>
-      <c r="I15" s="5">
-        <v>32459</v>
-      </c>
-      <c r="J15" s="6">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="K15" s="6">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-      <c r="L15" s="6">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="5">
-        <v>67917</v>
-      </c>
-      <c r="E16" s="5">
-        <v>36191</v>
-      </c>
-      <c r="F16" s="5">
-        <v>31726</v>
-      </c>
-      <c r="G16" s="5">
-        <v>66820</v>
-      </c>
-      <c r="H16" s="5">
-        <v>35319</v>
-      </c>
-      <c r="I16" s="5">
-        <v>31501</v>
-      </c>
-      <c r="J16" s="6">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="K16" s="6">
-        <v>-2.4E-2</v>
-      </c>
-      <c r="L16" s="6">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="5">
-        <v>81920</v>
-      </c>
-      <c r="E17" s="5">
-        <v>38507</v>
-      </c>
-      <c r="F17" s="5">
-        <v>43413</v>
-      </c>
-      <c r="G17" s="5">
-        <v>75286</v>
-      </c>
-      <c r="H17" s="5">
-        <v>35438</v>
-      </c>
-      <c r="I17" s="5">
-        <v>39848</v>
-      </c>
-      <c r="J17" s="6">
-        <v>-8.1000000000000003E-2</v>
-      </c>
-      <c r="K17" s="6">
-        <v>-0.08</v>
-      </c>
-      <c r="L17" s="6">
-        <v>-8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="5">
-        <v>37308</v>
-      </c>
-      <c r="E18" s="5">
-        <v>20320</v>
-      </c>
-      <c r="F18" s="5">
-        <v>16988</v>
-      </c>
-      <c r="G18" s="5">
-        <v>35047</v>
-      </c>
-      <c r="H18" s="5">
-        <v>17692</v>
-      </c>
-      <c r="I18" s="5">
-        <v>17355</v>
-      </c>
-      <c r="J18" s="6">
-        <v>-6.0999999999999999E-2</v>
-      </c>
-      <c r="K18" s="6">
-        <v>-0.129</v>
-      </c>
-      <c r="L18" s="6">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="5">
-        <v>74080</v>
-      </c>
-      <c r="E19" s="5">
-        <v>36532</v>
-      </c>
-      <c r="F19" s="5">
-        <v>37548</v>
-      </c>
-      <c r="G19" s="5">
-        <v>72757</v>
-      </c>
-      <c r="H19" s="5">
-        <v>36084</v>
-      </c>
-      <c r="I19" s="5">
-        <v>36673</v>
-      </c>
-      <c r="J19" s="6">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-      <c r="K19" s="6">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="L19" s="6">
-        <v>-2.3E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="5">
-        <v>112228</v>
-      </c>
-      <c r="E20" s="5">
-        <v>53008</v>
-      </c>
-      <c r="F20" s="5">
-        <v>59220</v>
-      </c>
-      <c r="G20" s="5">
-        <v>109885</v>
-      </c>
-      <c r="H20" s="5">
-        <v>51742</v>
-      </c>
-      <c r="I20" s="5">
-        <v>58143</v>
-      </c>
-      <c r="J20" s="6">
-        <v>-2.1000000000000001E-2</v>
-      </c>
-      <c r="K20" s="6">
-        <v>-2.4E-2</v>
-      </c>
-      <c r="L20" s="6">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="5">
-        <v>39662</v>
-      </c>
-      <c r="E21" s="5">
-        <v>21638</v>
-      </c>
-      <c r="F21" s="5">
-        <v>18024</v>
-      </c>
-      <c r="G21" s="5">
-        <v>38216</v>
-      </c>
-      <c r="H21" s="5">
-        <v>20905</v>
-      </c>
-      <c r="I21" s="5">
-        <v>17311</v>
-      </c>
-      <c r="J21" s="6">
-        <v>-3.5999999999999997E-2</v>
-      </c>
-      <c r="K21" s="6">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="L21" s="6">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D22" s="5">
-        <v>53057</v>
-      </c>
-      <c r="E22" s="5">
-        <v>28294</v>
-      </c>
-      <c r="F22" s="5">
-        <v>24763</v>
-      </c>
-      <c r="G22" s="5">
-        <v>49224</v>
-      </c>
-      <c r="H22" s="5">
-        <v>26265</v>
-      </c>
-      <c r="I22" s="5">
-        <v>22959</v>
-      </c>
-      <c r="J22" s="6">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-      <c r="K22" s="6">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-      <c r="L22" s="6">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="5">
-        <v>51205</v>
-      </c>
-      <c r="E23" s="5">
-        <v>23048</v>
-      </c>
-      <c r="F23" s="5">
-        <v>28157</v>
-      </c>
-      <c r="G23" s="5">
-        <v>47896</v>
-      </c>
-      <c r="H23" s="5">
-        <v>22040</v>
-      </c>
-      <c r="I23" s="5">
-        <v>25856</v>
-      </c>
-      <c r="J23" s="6">
-        <v>-6.5000000000000002E-2</v>
-      </c>
-      <c r="K23" s="6">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="L23" s="6">
-        <v>-8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="5">
-        <v>53049</v>
-      </c>
-      <c r="E24" s="5">
-        <v>26400</v>
-      </c>
-      <c r="F24" s="5">
-        <v>26649</v>
-      </c>
-      <c r="G24" s="5">
-        <v>51005</v>
-      </c>
-      <c r="H24" s="5">
-        <v>24849</v>
-      </c>
-      <c r="I24" s="5">
-        <v>26156</v>
-      </c>
-      <c r="J24" s="6">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="K24" s="6">
-        <v>-5.8999999999999997E-2</v>
-      </c>
-      <c r="L24" s="6">
-        <v>-1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="5">
-        <v>83254</v>
-      </c>
-      <c r="E25" s="5">
-        <v>40812</v>
-      </c>
-      <c r="F25" s="5">
-        <v>42442</v>
-      </c>
-      <c r="G25" s="5">
-        <v>79212</v>
-      </c>
-      <c r="H25" s="5">
-        <v>39533</v>
-      </c>
-      <c r="I25" s="5">
-        <v>39679</v>
-      </c>
-      <c r="J25" s="6">
-        <v>-4.9000000000000002E-2</v>
-      </c>
-      <c r="K25" s="6">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="L25" s="6">
-        <v>-6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="5">
-        <v>60395</v>
-      </c>
-      <c r="E26" s="5">
-        <v>29313</v>
-      </c>
-      <c r="F26" s="5">
-        <v>31082</v>
-      </c>
-      <c r="G26" s="5">
-        <v>57983</v>
-      </c>
-      <c r="H26" s="5">
-        <v>28154</v>
-      </c>
-      <c r="I26" s="5">
-        <v>29829</v>
-      </c>
-      <c r="J26" s="6">
-        <v>-0.04</v>
-      </c>
-      <c r="K26" s="6">
-        <v>-0.04</v>
-      </c>
-      <c r="L26" s="6">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="5">
-        <v>77601</v>
-      </c>
-      <c r="E27" s="5">
-        <v>38371</v>
-      </c>
-      <c r="F27" s="5">
-        <v>39230</v>
-      </c>
-      <c r="G27" s="5">
-        <v>72929</v>
-      </c>
-      <c r="H27" s="5">
-        <v>36216</v>
-      </c>
-      <c r="I27" s="5">
-        <v>36713</v>
-      </c>
-      <c r="J27" s="6">
-        <v>-0.06</v>
-      </c>
-      <c r="K27" s="6">
-        <v>-5.6000000000000001E-2</v>
-      </c>
-      <c r="L27" s="6">
-        <v>-6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D28" s="5">
-        <v>65718</v>
-      </c>
-      <c r="E28" s="5">
-        <v>31766</v>
-      </c>
-      <c r="F28" s="5">
-        <v>33952</v>
-      </c>
-      <c r="G28" s="5">
-        <v>58539</v>
-      </c>
-      <c r="H28" s="5">
-        <v>26225</v>
-      </c>
-      <c r="I28" s="5">
-        <v>32314</v>
-      </c>
-      <c r="J28" s="6">
-        <v>-0.109</v>
-      </c>
-      <c r="K28" s="6">
-        <v>-0.17399999999999999</v>
-      </c>
-      <c r="L28" s="6">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D29" s="5">
-        <v>94686</v>
-      </c>
-      <c r="E29" s="5">
-        <v>47039</v>
-      </c>
-      <c r="F29" s="5">
-        <v>47647</v>
-      </c>
-      <c r="G29" s="5">
-        <v>89962</v>
-      </c>
-      <c r="H29" s="5">
-        <v>45950</v>
-      </c>
-      <c r="I29" s="5">
-        <v>44012</v>
-      </c>
-      <c r="J29" s="6">
-        <v>-0.05</v>
-      </c>
-      <c r="K29" s="6">
-        <v>-2.3E-2</v>
-      </c>
-      <c r="L29" s="6">
-        <v>-7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" s="5">
-        <v>91513</v>
-      </c>
-      <c r="E30" s="5">
-        <v>44478</v>
-      </c>
-      <c r="F30" s="5">
-        <v>47035</v>
-      </c>
-      <c r="G30" s="5">
-        <v>85745</v>
-      </c>
-      <c r="H30" s="5">
-        <v>41329</v>
-      </c>
-      <c r="I30" s="5">
-        <v>44416</v>
-      </c>
-      <c r="J30" s="6">
-        <v>-6.3E-2</v>
-      </c>
-      <c r="K30" s="6">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-      <c r="L30" s="6">
-        <v>-5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="5">
-        <v>73358</v>
-      </c>
-      <c r="E31" s="5">
-        <v>34524</v>
-      </c>
-      <c r="F31" s="5">
-        <v>38834</v>
-      </c>
-      <c r="G31" s="5">
-        <v>69640</v>
-      </c>
-      <c r="H31" s="5">
-        <v>32535</v>
-      </c>
-      <c r="I31" s="5">
-        <v>37105</v>
-      </c>
-      <c r="J31" s="6">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-      <c r="K31" s="6">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-      <c r="L31" s="6">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="5">
-        <v>89433</v>
-      </c>
-      <c r="E32" s="5">
-        <v>50633</v>
-      </c>
-      <c r="F32" s="5">
-        <v>38800</v>
-      </c>
-      <c r="G32" s="5">
-        <v>84243</v>
-      </c>
-      <c r="H32" s="5">
-        <v>47434</v>
-      </c>
-      <c r="I32" s="5">
-        <v>36809</v>
-      </c>
-      <c r="J32" s="6">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-      <c r="K32" s="6">
-        <v>-6.3E-2</v>
-      </c>
-      <c r="L32" s="6">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="5">
-        <v>17197</v>
-      </c>
-      <c r="E33" s="5">
-        <v>9172</v>
-      </c>
-      <c r="F33" s="5">
-        <v>8025</v>
-      </c>
-      <c r="G33" s="5">
-        <v>16389</v>
-      </c>
-      <c r="H33" s="5">
-        <v>8704</v>
-      </c>
-      <c r="I33" s="5">
-        <v>7685</v>
-      </c>
-      <c r="J33" s="6">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="K33" s="6">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-      <c r="L33" s="6">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="5">
-        <v>99614</v>
-      </c>
-      <c r="E34" s="5">
-        <v>50967</v>
-      </c>
-      <c r="F34" s="5">
-        <v>48647</v>
-      </c>
-      <c r="G34" s="5">
-        <v>96252</v>
-      </c>
-      <c r="H34" s="5">
-        <v>49030</v>
-      </c>
-      <c r="I34" s="5">
-        <v>47222</v>
-      </c>
-      <c r="J34" s="6">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="K34" s="6">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-      <c r="L34" s="6">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="5">
-        <v>93399</v>
-      </c>
-      <c r="E35" s="5">
-        <v>46050</v>
-      </c>
-      <c r="F35" s="5">
-        <v>47349</v>
-      </c>
-      <c r="G35" s="5">
-        <v>88525</v>
-      </c>
-      <c r="H35" s="5">
-        <v>43720</v>
-      </c>
-      <c r="I35" s="5">
-        <v>44805</v>
-      </c>
-      <c r="J35" s="6">
-        <v>-5.1999999999999998E-2</v>
-      </c>
-      <c r="K35" s="6">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-      <c r="L35" s="6">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="5">
-        <v>59020</v>
-      </c>
-      <c r="E36" s="5">
-        <v>29578</v>
-      </c>
-      <c r="F36" s="5">
-        <v>29442</v>
-      </c>
-      <c r="G36" s="5">
-        <v>55588</v>
-      </c>
-      <c r="H36" s="5">
-        <v>27444</v>
-      </c>
-      <c r="I36" s="5">
-        <v>28144</v>
-      </c>
-      <c r="J36" s="6">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-      <c r="K36" s="6">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-      <c r="L36" s="6">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="5">
-        <v>91268</v>
-      </c>
-      <c r="E37" s="5">
-        <v>47792</v>
-      </c>
-      <c r="F37" s="5">
-        <v>43476</v>
-      </c>
-      <c r="G37" s="5">
-        <v>86362</v>
-      </c>
-      <c r="H37" s="5">
-        <v>45185</v>
-      </c>
-      <c r="I37" s="5">
-        <v>41177</v>
-      </c>
-      <c r="J37" s="6">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-      <c r="K37" s="6">
         <v>-5.5E-2</v>
       </c>
-      <c r="L37" s="6">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D38" s="5">
-        <v>87227</v>
-      </c>
-      <c r="E38" s="5">
-        <v>44660</v>
-      </c>
-      <c r="F38" s="5">
-        <v>42567</v>
-      </c>
-      <c r="G38" s="5">
-        <v>82973</v>
-      </c>
-      <c r="H38" s="5">
-        <v>42513</v>
-      </c>
-      <c r="I38" s="5">
-        <v>40460</v>
-      </c>
-      <c r="J38" s="6">
-        <v>-4.9000000000000002E-2</v>
-      </c>
-      <c r="K38" s="6">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-      <c r="L38" s="6">
-        <v>-4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="5">
-        <v>62708</v>
-      </c>
-      <c r="E39" s="5">
-        <v>34086</v>
-      </c>
-      <c r="F39" s="5">
-        <v>28622</v>
-      </c>
-      <c r="G39" s="5">
-        <v>59920</v>
-      </c>
-      <c r="H39" s="5">
-        <v>32599</v>
-      </c>
-      <c r="I39" s="5">
-        <v>27321</v>
-      </c>
-      <c r="J39" s="6">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="K39" s="6">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="L39" s="6">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" s="5">
-        <v>102715</v>
-      </c>
-      <c r="E40" s="5">
-        <v>53970</v>
-      </c>
-      <c r="F40" s="5">
-        <v>48745</v>
-      </c>
-      <c r="G40" s="5">
-        <v>97696</v>
-      </c>
-      <c r="H40" s="5">
-        <v>52312</v>
-      </c>
-      <c r="I40" s="5">
-        <v>45384</v>
-      </c>
-      <c r="J40" s="6">
-        <v>-4.9000000000000002E-2</v>
-      </c>
-      <c r="K40" s="6">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="L40" s="6">
-        <v>-6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D41" s="5">
-        <v>64788</v>
-      </c>
-      <c r="E41" s="5">
-        <v>35047</v>
-      </c>
-      <c r="F41" s="5">
-        <v>29741</v>
-      </c>
-      <c r="G41" s="5">
-        <v>62667</v>
-      </c>
-      <c r="H41" s="5">
-        <v>34739</v>
-      </c>
-      <c r="I41" s="5">
-        <v>27928</v>
-      </c>
-      <c r="J41" s="6">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="K41" s="6">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="L41" s="6">
-        <v>-6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="5">
-        <v>64810</v>
-      </c>
-      <c r="E42" s="5">
-        <v>28610</v>
-      </c>
-      <c r="F42" s="5">
-        <v>36200</v>
-      </c>
-      <c r="G42" s="5">
-        <v>59623</v>
-      </c>
-      <c r="H42" s="5">
-        <v>26515</v>
-      </c>
-      <c r="I42" s="5">
-        <v>33108</v>
-      </c>
-      <c r="J42" s="6">
-        <v>-0.08</v>
-      </c>
-      <c r="K42" s="6">
-        <v>-7.2999999999999995E-2</v>
-      </c>
-      <c r="L42" s="6">
-        <v>-8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="5">
-        <v>73987</v>
-      </c>
-      <c r="E43" s="5">
-        <v>30426</v>
-      </c>
-      <c r="F43" s="5">
-        <v>43561</v>
-      </c>
-      <c r="G43" s="5">
-        <v>68434</v>
-      </c>
-      <c r="H43" s="5">
-        <v>28024</v>
-      </c>
-      <c r="I43" s="5">
-        <v>40410</v>
-      </c>
-      <c r="J43" s="6">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="K43" s="6">
-        <v>-7.9000000000000001E-2</v>
-      </c>
-      <c r="L43" s="6">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D44" s="5">
-        <v>74310</v>
-      </c>
-      <c r="E44" s="5">
-        <v>38871</v>
-      </c>
-      <c r="F44" s="5">
-        <v>35439</v>
-      </c>
-      <c r="G44" s="5">
-        <v>69076</v>
-      </c>
-      <c r="H44" s="5">
-        <v>35664</v>
-      </c>
-      <c r="I44" s="5">
-        <v>33412</v>
-      </c>
-      <c r="J44" s="6">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="K44" s="6">
-        <v>-8.3000000000000004E-2</v>
-      </c>
-      <c r="L44" s="6">
-        <v>-5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="5">
-        <v>38933</v>
-      </c>
-      <c r="E45" s="5">
-        <v>20462</v>
-      </c>
-      <c r="F45" s="5">
-        <v>18471</v>
-      </c>
-      <c r="G45" s="5">
-        <v>36845</v>
-      </c>
-      <c r="H45" s="5">
-        <v>19711</v>
-      </c>
-      <c r="I45" s="5">
-        <v>17134</v>
-      </c>
-      <c r="J45" s="6">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-      <c r="K45" s="6">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-      <c r="L45" s="6">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="5">
-        <v>79851</v>
-      </c>
-      <c r="E46" s="5">
-        <v>39519</v>
-      </c>
-      <c r="F46" s="5">
-        <v>40332</v>
-      </c>
-      <c r="G46" s="5">
-        <v>75776</v>
-      </c>
-      <c r="H46" s="5">
-        <v>37974</v>
-      </c>
-      <c r="I46" s="5">
-        <v>37802</v>
-      </c>
-      <c r="J46" s="6">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-      <c r="K46" s="6">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="L46" s="6">
-        <v>-6.3E-2</v>
-      </c>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.6">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
